--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchOnNewBusinessFullMatchOnRenewal_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchOnNewBusinessFullMatchOnRenewal_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>VIN</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>SSGKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>PD001</t>
+  </si>
+  <si>
+    <t>UM001</t>
+  </si>
+  <si>
+    <t>MP001</t>
   </si>
 </sst>
 </file>
@@ -532,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,8 +793,144 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="3">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>214</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjBkZjlhOWJkLWZlYjEtNGIwMS05MjIyLTRlMWUzMWIxNDk4NCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGd3M2VyYWo8L1VzZXJOYW1lPjxEYXRlVGltZT4xLzMxLzIwMTkgOTo1MzoxOSBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPkNvbmZpZGVudGlhbDwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="0df9a9bd-feb1-4b01-9222-4e1e31b14984" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2C3734C-AA0C-4F31-9D35-262C0F9B6129}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A48774-47C6-4576-AD4C-C7394D761E54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>